--- a/public/REGISTRO.xlsx
+++ b/public/REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\flr webapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F50412D-D370-4AA6-9593-394756F8A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEDCCD-1638-4CE1-8F42-FBBE628800AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78796F59-7B85-4037-A531-62AA1E44EDC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="342">
   <si>
     <t>ATLETICO VAR</t>
   </si>
@@ -156,30 +156,6 @@
     <t>UD</t>
   </si>
   <si>
-    <t>RAVAGLIA F.</t>
-  </si>
-  <si>
-    <t>TERRACCIANO</t>
-  </si>
-  <si>
-    <t>CAPRILE</t>
-  </si>
-  <si>
-    <t>DI GENNARO</t>
-  </si>
-  <si>
-    <t>PERIN</t>
-  </si>
-  <si>
-    <t>PIZZIGNACCO</t>
-  </si>
-  <si>
-    <t>CHICHIZOLA</t>
-  </si>
-  <si>
-    <t>PADELLI</t>
-  </si>
-  <si>
     <t>LAZARO</t>
   </si>
   <si>
@@ -234,9 +210,6 @@
     <t>HUMMELS</t>
   </si>
   <si>
-    <t>BIRAGHI</t>
-  </si>
-  <si>
     <t>DS CS</t>
   </si>
   <si>
@@ -258,9 +231,6 @@
     <t>DC M</t>
   </si>
   <si>
-    <t>PALACIOS T.</t>
-  </si>
-  <si>
     <t>TCHATCHOUA</t>
   </si>
   <si>
@@ -327,9 +297,6 @@
     <t>GOSENS</t>
   </si>
   <si>
-    <t>MARIANUCCI</t>
-  </si>
-  <si>
     <t>GILA</t>
   </si>
   <si>
@@ -405,9 +372,6 @@
     <t>SOLET</t>
   </si>
   <si>
-    <t>HIEN</t>
-  </si>
-  <si>
     <t>DUMFRIES</t>
   </si>
   <si>
@@ -465,9 +429,6 @@
     <t>CALABRIA</t>
   </si>
   <si>
-    <t>GHIRARDI</t>
-  </si>
-  <si>
     <t>ROMAGNOLI</t>
   </si>
   <si>
@@ -600,9 +561,6 @@
     <t>NERES</t>
   </si>
   <si>
-    <t>MALDINI</t>
-  </si>
-  <si>
     <t>DELE-BASHIRU</t>
   </si>
   <si>
@@ -645,21 +603,12 @@
     <t>VLASIC</t>
   </si>
   <si>
-    <t>CONDE'</t>
-  </si>
-  <si>
-    <t>EKKELLENKAMP</t>
-  </si>
-  <si>
     <t>BERNABE'</t>
   </si>
   <si>
     <t>PULISIC</t>
   </si>
   <si>
-    <t>CONRET</t>
-  </si>
-  <si>
     <t>PELLEGRINI LO.</t>
   </si>
   <si>
@@ -705,9 +654,6 @@
     <t>BRESCIANINI</t>
   </si>
   <si>
-    <t>BASIC</t>
-  </si>
-  <si>
     <t>DA CUNHA</t>
   </si>
   <si>
@@ -735,9 +681,6 @@
     <t>FAGIOLI</t>
   </si>
   <si>
-    <t>HASA</t>
-  </si>
-  <si>
     <t>ORISTANIO</t>
   </si>
   <si>
@@ -840,9 +783,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
     <t>THURAM</t>
   </si>
   <si>
@@ -906,9 +846,6 @@
     <t>LUKAKU</t>
   </si>
   <si>
-    <t>COMAN</t>
-  </si>
-  <si>
     <t>JOAO FELIX</t>
   </si>
   <si>
@@ -972,9 +909,6 @@
     <t>SANABRIA</t>
   </si>
   <si>
-    <t>DALLINGA</t>
-  </si>
-  <si>
     <t>CASTRO S.</t>
   </si>
   <si>
@@ -1002,9 +936,6 @@
     <t>REBIC</t>
   </si>
   <si>
-    <t>MIHAILA</t>
-  </si>
-  <si>
     <t>PIEROTTI</t>
   </si>
   <si>
@@ -1020,9 +951,6 @@
     <t>PC SP</t>
   </si>
   <si>
-    <t>MBANGULA</t>
-  </si>
-  <si>
     <t>KARAMOH</t>
   </si>
   <si>
@@ -1039,6 +967,99 @@
   </si>
   <si>
     <t>ATTACCO</t>
+  </si>
+  <si>
+    <t>CACACE</t>
+  </si>
+  <si>
+    <t>AUGELLO</t>
+  </si>
+  <si>
+    <t>ZAPPACOSTA</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>GHILARDI</t>
+  </si>
+  <si>
+    <t>DS CS AS</t>
+  </si>
+  <si>
+    <t>DE AD</t>
+  </si>
+  <si>
+    <t>ELLERTSSON</t>
+  </si>
+  <si>
+    <t>MANDRAGORA</t>
+  </si>
+  <si>
+    <t>EKKELENKAMP</t>
+  </si>
+  <si>
+    <t>CORNET</t>
+  </si>
+  <si>
+    <t>GINEITIS</t>
+  </si>
+  <si>
+    <t>BERISHA M.</t>
+  </si>
+  <si>
+    <t>CC CE</t>
+  </si>
+  <si>
+    <t>CC T CD</t>
+  </si>
+  <si>
+    <t>A PC</t>
+  </si>
+  <si>
+    <t>DC DS M</t>
+  </si>
+  <si>
+    <t>BELTRAN L.</t>
+  </si>
+  <si>
+    <t>COMAN F.</t>
+  </si>
+  <si>
+    <t>ARNAUTOVIC</t>
+  </si>
+  <si>
+    <t>ODGAARD</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t>PC SP T</t>
+  </si>
+  <si>
+    <t>PALLADINO</t>
+  </si>
+  <si>
+    <t>INZAGHI S.</t>
+  </si>
+  <si>
+    <t>TUDOR</t>
+  </si>
+  <si>
+    <t>RANIERI C.</t>
+  </si>
+  <si>
+    <t>VANOLI</t>
+  </si>
+  <si>
+    <t>CHIVU</t>
+  </si>
+  <si>
+    <t>GASPERINI</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337291C6-31E9-4872-8C89-E373383AA2AB}">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1504,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
@@ -1519,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>10</v>
@@ -1534,7 +1555,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>10</v>
@@ -1549,7 +1570,7 @@
         <v>71</v>
       </c>
       <c r="AB2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>10</v>
@@ -1564,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="AH2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>10</v>
@@ -1579,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="AN2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>10</v>
@@ -1594,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="AT2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>10</v>
@@ -1611,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -1626,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1662,7 @@
         <v>40</v>
       </c>
       <c r="P3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>10</v>
@@ -1656,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>10</v>
@@ -1671,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="AB3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>10</v>
@@ -1686,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="AH3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>10</v>
@@ -1701,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="AN3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>10</v>
@@ -1716,163 +1737,41 @@
         <v>7</v>
       </c>
       <c r="AT3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -1881,13 +1780,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1896,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>16</v>
@@ -1911,13 +1810,13 @@
         <v>16</v>
       </c>
       <c r="P6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>16</v>
@@ -1926,13 +1825,13 @@
         <v>9</v>
       </c>
       <c r="V6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>9</v>
@@ -1941,13 +1840,13 @@
         <v>10</v>
       </c>
       <c r="AB6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="2" t="s">
         <v>16</v>
@@ -1956,13 +1855,13 @@
         <v>10</v>
       </c>
       <c r="AH6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AL6" s="2" t="s">
         <v>18</v>
@@ -1971,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="AN6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AR6" s="2" t="s">
         <v>33</v>
@@ -1986,60 +1885,60 @@
         <v>23</v>
       </c>
       <c r="AT6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="2" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>12</v>
@@ -2048,28 +1947,28 @@
         <v>9</v>
       </c>
       <c r="V7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AA7" s="2">
         <v>9</v>
       </c>
       <c r="AB7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>24</v>
@@ -2078,13 +1977,13 @@
         <v>7</v>
       </c>
       <c r="AH7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>20</v>
@@ -2093,45 +1992,45 @@
         <v>11</v>
       </c>
       <c r="AN7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="AS7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -2140,13 +2039,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>18</v>
@@ -2155,13 +2054,13 @@
         <v>25</v>
       </c>
       <c r="P8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>30</v>
@@ -2170,43 +2069,43 @@
         <v>55</v>
       </c>
       <c r="V8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="2">
         <v>7</v>
       </c>
       <c r="AB8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG8" s="2">
         <v>6</v>
       </c>
       <c r="AH8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>18</v>
@@ -2215,13 +2114,13 @@
         <v>20</v>
       </c>
       <c r="AN8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AR8" s="2" t="s">
         <v>28</v>
@@ -2230,15 +2129,15 @@
         <v>8</v>
       </c>
       <c r="AT8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -2247,13 +2146,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
@@ -2262,13 +2161,13 @@
         <v>7</v>
       </c>
       <c r="J9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>12</v>
@@ -2277,13 +2176,13 @@
         <v>39</v>
       </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>9</v>
@@ -2292,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="V9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>39</v>
@@ -2307,13 +2206,13 @@
         <v>20</v>
       </c>
       <c r="AB9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>22</v>
@@ -2322,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="AH9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>28</v>
@@ -2337,30 +2236,30 @@
         <v>33</v>
       </c>
       <c r="AN9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>97</v>
+        <v>313</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AT9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -2369,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>33</v>
@@ -2384,13 +2283,13 @@
         <v>17</v>
       </c>
       <c r="J10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>28</v>
@@ -2399,28 +2298,28 @@
         <v>9</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="2" t="e">
-        <v>#N/A</v>
+        <v>91</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="U10" s="2">
         <v>20</v>
       </c>
       <c r="V10" s="2">
-        <v>3</v>
-      </c>
-      <c r="W10" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>26</v>
@@ -2429,13 +2328,13 @@
         <v>10</v>
       </c>
       <c r="AB10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>14</v>
@@ -2444,13 +2343,13 @@
         <v>18</v>
       </c>
       <c r="AH10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>16</v>
@@ -2459,13 +2358,13 @@
         <v>70</v>
       </c>
       <c r="AN10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>26</v>
@@ -2474,30 +2373,30 @@
         <v>5</v>
       </c>
       <c r="AT10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -2506,13 +2405,13 @@
         <v>51</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>33</v>
@@ -2521,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="P11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>22</v>
@@ -2536,58 +2435,58 @@
         <v>7</v>
       </c>
       <c r="V11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AA11" s="2">
         <v>6</v>
       </c>
       <c r="AB11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AG11" s="2">
         <v>5</v>
       </c>
       <c r="AH11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM11" s="2">
         <v>32</v>
       </c>
       <c r="AN11" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>18</v>
@@ -2596,15 +2495,15 @@
         <v>32</v>
       </c>
       <c r="AT11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2613,13 +2512,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>37</v>
@@ -2628,13 +2527,13 @@
         <v>13</v>
       </c>
       <c r="J12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>16</v>
@@ -2643,43 +2542,43 @@
         <v>30</v>
       </c>
       <c r="P12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="2" t="e">
-        <v>#N/A</v>
+        <v>111</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="U12" s="2">
         <v>31</v>
       </c>
       <c r="V12" s="2">
-        <v>3</v>
-      </c>
-      <c r="W12" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>16</v>
@@ -2688,13 +2587,13 @@
         <v>16</v>
       </c>
       <c r="AH12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>24</v>
@@ -2703,13 +2602,13 @@
         <v>23</v>
       </c>
       <c r="AN12" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>24</v>
@@ -2718,15 +2617,15 @@
         <v>5</v>
       </c>
       <c r="AT12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -2735,13 +2634,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
@@ -2750,13 +2649,13 @@
         <v>7</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>26</v>
@@ -2765,28 +2664,28 @@
         <v>6</v>
       </c>
       <c r="P13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U13" s="2">
         <v>8</v>
       </c>
       <c r="V13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>24</v>
@@ -2795,13 +2694,13 @@
         <v>5</v>
       </c>
       <c r="AB13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>16</v>
@@ -2810,13 +2709,13 @@
         <v>22</v>
       </c>
       <c r="AH13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AL13" s="2" t="s">
         <v>30</v>
@@ -2825,13 +2724,13 @@
         <v>16</v>
       </c>
       <c r="AN13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AR13" s="2" t="s">
         <v>30</v>
@@ -2840,15 +2739,15 @@
         <v>29</v>
       </c>
       <c r="AT13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -2857,13 +2756,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>26</v>
@@ -2872,13 +2771,13 @@
         <v>6</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>39</v>
@@ -2887,13 +2786,13 @@
         <v>8</v>
       </c>
       <c r="P14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>33</v>
@@ -2902,13 +2801,13 @@
         <v>30</v>
       </c>
       <c r="V14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>22</v>
@@ -2917,13 +2816,13 @@
         <v>12</v>
       </c>
       <c r="AB14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>12</v>
@@ -2932,28 +2831,28 @@
         <v>7</v>
       </c>
       <c r="AH14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL14" s="2" t="e">
-        <v>#N/A</v>
+        <v>315</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="AM14" s="2">
         <v>1</v>
       </c>
       <c r="AN14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO14" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>14</v>
@@ -2962,30 +2861,30 @@
         <v>10</v>
       </c>
       <c r="AT14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>14</v>
@@ -2994,28 +2893,28 @@
         <v>6</v>
       </c>
       <c r="J15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" s="2" t="e">
-        <v>#N/A</v>
+        <v>135</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O15" s="2">
         <v>5</v>
       </c>
       <c r="P15" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>20</v>
@@ -3024,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="V15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>12</v>
@@ -3039,13 +2938,13 @@
         <v>4</v>
       </c>
       <c r="AB15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>9</v>
@@ -3054,13 +2953,13 @@
         <v>9</v>
       </c>
       <c r="AH15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AL15" s="2" t="s">
         <v>18</v>
@@ -3069,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="AN15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AR15" s="2" t="s">
         <v>14</v>
@@ -3084,56 +2983,56 @@
         <v>6</v>
       </c>
       <c r="AT15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>33</v>
@@ -3142,13 +3041,13 @@
         <v>12</v>
       </c>
       <c r="J17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>16</v>
@@ -3157,43 +3056,43 @@
         <v>21</v>
       </c>
       <c r="P17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U17" s="2">
         <v>7</v>
       </c>
       <c r="V17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AA17" s="2">
         <v>12</v>
       </c>
       <c r="AB17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>20</v>
@@ -3202,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="AH17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AL17" s="2" t="s">
         <v>18</v>
@@ -3217,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="AN17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>39</v>
@@ -3232,15 +3131,15 @@
         <v>8</v>
       </c>
       <c r="AT17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -3249,13 +3148,13 @@
         <v>41</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>33</v>
@@ -3264,13 +3163,13 @@
         <v>17</v>
       </c>
       <c r="J18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>20</v>
@@ -3279,28 +3178,28 @@
         <v>8</v>
       </c>
       <c r="P18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="U18" s="2">
         <v>40</v>
       </c>
       <c r="V18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>22</v>
@@ -3309,28 +3208,28 @@
         <v>11</v>
       </c>
       <c r="AB18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF18" s="2" t="e">
-        <v>#N/A</v>
+        <v>165</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="AG18" s="2">
         <v>15</v>
       </c>
       <c r="AH18" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AL18" s="2" t="s">
         <v>20</v>
@@ -3339,13 +3238,13 @@
         <v>9</v>
       </c>
       <c r="AN18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>39</v>
@@ -3354,15 +3253,15 @@
         <v>6</v>
       </c>
       <c r="AT18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -3371,13 +3270,13 @@
         <v>65</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -3386,13 +3285,13 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>30</v>
@@ -3401,13 +3300,13 @@
         <v>8</v>
       </c>
       <c r="P19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>30</v>
@@ -3416,28 +3315,28 @@
         <v>30</v>
       </c>
       <c r="V19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="AA19" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>14</v>
@@ -3446,13 +3345,13 @@
         <v>6</v>
       </c>
       <c r="AH19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AL19" s="2" t="s">
         <v>20</v>
@@ -3461,13 +3360,13 @@
         <v>12</v>
       </c>
       <c r="AN19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AR19" s="2" t="s">
         <v>14</v>
@@ -3476,30 +3375,30 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>71</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
@@ -3508,13 +3407,13 @@
         <v>11</v>
       </c>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>24</v>
@@ -3523,13 +3422,13 @@
         <v>13</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>18</v>
@@ -3538,13 +3437,13 @@
         <v>37</v>
       </c>
       <c r="V20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>26</v>
@@ -3553,13 +3452,13 @@
         <v>21</v>
       </c>
       <c r="AB20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>9</v>
@@ -3568,13 +3467,13 @@
         <v>30</v>
       </c>
       <c r="AH20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AL20" s="2" t="s">
         <v>22</v>
@@ -3583,45 +3482,45 @@
         <v>14</v>
       </c>
       <c r="AN20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR20" s="2" t="e">
-        <v>#N/A</v>
+        <v>319</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AS20" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU20" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>51</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>37</v>
@@ -3630,13 +3529,13 @@
         <v>49</v>
       </c>
       <c r="J21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>12</v>
@@ -3645,28 +3544,28 @@
         <v>71</v>
       </c>
       <c r="P21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="T21" s="2" t="e">
-        <v>#N/A</v>
+        <v>321</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="U21" s="2">
         <v>8</v>
       </c>
       <c r="V21" s="2">
-        <v>3</v>
-      </c>
-      <c r="W21" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>20</v>
@@ -3675,13 +3574,13 @@
         <v>38</v>
       </c>
       <c r="AB21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>30</v>
@@ -3690,13 +3589,13 @@
         <v>21</v>
       </c>
       <c r="AH21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AL21" s="2" t="s">
         <v>33</v>
@@ -3705,13 +3604,13 @@
         <v>26</v>
       </c>
       <c r="AN21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AR21" s="2" t="s">
         <v>14</v>
@@ -3720,30 +3619,30 @@
         <v>10</v>
       </c>
       <c r="AT21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>37</v>
@@ -3752,13 +3651,13 @@
         <v>43</v>
       </c>
       <c r="J22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>18</v>
@@ -3767,13 +3666,13 @@
         <v>12</v>
       </c>
       <c r="P22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>16</v>
@@ -3782,13 +3681,13 @@
         <v>21</v>
       </c>
       <c r="V22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="Z22" s="2" t="s">
         <v>9</v>
@@ -3797,13 +3696,13 @@
         <v>19</v>
       </c>
       <c r="AB22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>16</v>
@@ -3812,13 +3711,13 @@
         <v>71</v>
       </c>
       <c r="AH22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AL22" s="2" t="s">
         <v>33</v>
@@ -3827,60 +3726,60 @@
         <v>19</v>
       </c>
       <c r="AN22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR22" s="2" t="e">
-        <v>#N/A</v>
+        <v>322</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="AS22" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT22" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU22" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>12</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="2" t="e">
-        <v>#N/A</v>
+        <v>207</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I23" s="2">
         <v>14</v>
       </c>
       <c r="J23" s="2">
-        <v>3</v>
-      </c>
-      <c r="K23" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>30</v>
@@ -3889,28 +3788,28 @@
         <v>19</v>
       </c>
       <c r="P23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U23" s="2">
         <v>6</v>
       </c>
       <c r="V23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>33</v>
@@ -3919,13 +3818,13 @@
         <v>8</v>
       </c>
       <c r="AB23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>30</v>
@@ -3934,13 +3833,13 @@
         <v>8</v>
       </c>
       <c r="AH23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AL23" s="2" t="s">
         <v>18</v>
@@ -3949,45 +3848,45 @@
         <v>3</v>
       </c>
       <c r="AN23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="AR23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>30</v>
@@ -3996,13 +3895,13 @@
         <v>26</v>
       </c>
       <c r="J24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>9</v>
@@ -4011,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="P24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>18</v>
@@ -4026,28 +3925,28 @@
         <v>8</v>
       </c>
       <c r="V24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="2">
         <v>11</v>
       </c>
       <c r="AB24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>28</v>
@@ -4056,13 +3955,13 @@
         <v>12</v>
       </c>
       <c r="AH24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>30</v>
@@ -4071,13 +3970,13 @@
         <v>6</v>
       </c>
       <c r="AN24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="AR24" s="2" t="s">
         <v>18</v>
@@ -4086,15 +3985,15 @@
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -4103,13 +4002,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>33</v>
@@ -4118,13 +4017,13 @@
         <v>14</v>
       </c>
       <c r="J25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>26</v>
@@ -4133,43 +4032,43 @@
         <v>6</v>
       </c>
       <c r="P25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U25" s="2">
         <v>13</v>
       </c>
       <c r="V25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z25" s="2" t="e">
-        <v>#N/A</v>
+        <v>232</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="AA25" s="2">
         <v>184</v>
       </c>
       <c r="AB25" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AF25" s="2" t="s">
         <v>12</v>
@@ -4178,13 +4077,13 @@
         <v>7</v>
       </c>
       <c r="AH25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AL25" s="2" t="s">
         <v>20</v>
@@ -4193,30 +4092,30 @@
         <v>16</v>
       </c>
       <c r="AN25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AS25" s="2">
         <v>9</v>
       </c>
       <c r="AT25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -4225,13 +4124,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>39</v>
@@ -4240,28 +4139,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N26" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="O26" s="2">
         <v>10</v>
       </c>
       <c r="P26" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>14</v>
@@ -4270,13 +4169,13 @@
         <v>6</v>
       </c>
       <c r="V26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>9</v>
@@ -4285,43 +4184,43 @@
         <v>14</v>
       </c>
       <c r="AB26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AG26" s="2">
         <v>5</v>
       </c>
       <c r="AH26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AM26" s="2">
         <v>1</v>
       </c>
       <c r="AN26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AR26" s="2" t="s">
         <v>18</v>
@@ -4330,163 +4229,163 @@
         <v>9</v>
       </c>
       <c r="AT26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="2">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I27" s="2">
-        <v>51</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2" t="e">
-        <v>#N/A</v>
+        <v>310</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="2">
-        <v>89</v>
-      </c>
-      <c r="P27" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="2">
-        <v>21</v>
-      </c>
-      <c r="V27" s="2">
-        <v>3</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>18</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>12</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>23</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>16</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU27" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>334</v>
+        <v>247</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2">
+        <v>51</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>334</v>
+        <v>249</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="2">
+        <v>89</v>
+      </c>
+      <c r="P28" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>334</v>
+        <v>251</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="2">
+        <v>21</v>
+      </c>
+      <c r="V28" s="2">
+        <v>2</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>334</v>
+        <v>252</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>334</v>
+        <v>254</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>334</v>
+        <v>255</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>23</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>334</v>
+        <v>256</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>16</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -4495,13 +4394,13 @@
         <v>66</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>39</v>
@@ -4510,13 +4409,13 @@
         <v>21</v>
       </c>
       <c r="J29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>14</v>
@@ -4525,13 +4424,13 @@
         <v>15</v>
       </c>
       <c r="P29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>12</v>
@@ -4540,13 +4439,13 @@
         <v>24</v>
       </c>
       <c r="V29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="Z29" s="2" t="s">
         <v>24</v>
@@ -4555,13 +4454,13 @@
         <v>16</v>
       </c>
       <c r="AB29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>14</v>
@@ -4570,13 +4469,13 @@
         <v>40</v>
       </c>
       <c r="AH29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="AL29" s="2" t="s">
         <v>20</v>
@@ -4585,30 +4484,30 @@
         <v>19</v>
       </c>
       <c r="AN29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AR29" s="2" t="e">
-        <v>#N/A</v>
+        <v>268</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AS29" s="2">
         <v>167</v>
       </c>
       <c r="AT29" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU29" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -4617,43 +4516,43 @@
         <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H30" s="2" t="e">
-        <v>#N/A</v>
+        <v>329</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I30" s="2">
         <v>58</v>
       </c>
       <c r="J30" s="2">
-        <v>3</v>
-      </c>
-      <c r="K30" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N30" s="2" t="e">
-        <v>#N/A</v>
+        <v>270</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O30" s="2">
         <v>167</v>
       </c>
       <c r="P30" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>18</v>
@@ -4662,13 +4561,13 @@
         <v>24</v>
       </c>
       <c r="V30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>28</v>
@@ -4677,13 +4576,13 @@
         <v>25</v>
       </c>
       <c r="AB30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>33</v>
@@ -4692,13 +4591,13 @@
         <v>30</v>
       </c>
       <c r="AH30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="AL30" s="2" t="s">
         <v>28</v>
@@ -4707,30 +4606,30 @@
         <v>27</v>
       </c>
       <c r="AN30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AR30" s="2" t="e">
-        <v>#N/A</v>
+        <v>276</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="AS30" s="2">
         <v>260</v>
       </c>
       <c r="AT30" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU30" s="2" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -4739,13 +4638,13 @@
         <v>17</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>20</v>
@@ -4754,13 +4653,13 @@
         <v>43</v>
       </c>
       <c r="J31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>30</v>
@@ -4769,13 +4668,13 @@
         <v>7</v>
       </c>
       <c r="P31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>9</v>
@@ -4784,13 +4683,13 @@
         <v>90</v>
       </c>
       <c r="V31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>18</v>
@@ -4799,13 +4698,13 @@
         <v>41</v>
       </c>
       <c r="AB31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="AF31" s="2" t="s">
         <v>20</v>
@@ -4814,13 +4713,13 @@
         <v>54</v>
       </c>
       <c r="AH31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="AL31" s="2" t="s">
         <v>18</v>
@@ -4829,45 +4728,45 @@
         <v>80</v>
       </c>
       <c r="AN31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AS31" s="2">
         <v>15</v>
       </c>
       <c r="AT31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2">
         <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>22</v>
@@ -4876,28 +4775,28 @@
         <v>5</v>
       </c>
       <c r="J32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O32" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>9</v>
@@ -4906,13 +4805,13 @@
         <v>14</v>
       </c>
       <c r="V32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>26</v>
@@ -4921,13 +4820,13 @@
         <v>20</v>
       </c>
       <c r="AB32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>20</v>
@@ -4936,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="AH32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AL32" s="2" t="s">
         <v>37</v>
@@ -4951,13 +4850,13 @@
         <v>6</v>
       </c>
       <c r="AN32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="AR32" s="2" t="s">
         <v>33</v>
@@ -4966,30 +4865,30 @@
         <v>56</v>
       </c>
       <c r="AT32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>24</v>
@@ -4998,28 +4897,28 @@
         <v>4</v>
       </c>
       <c r="J33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="O33" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>24</v>
@@ -5028,13 +4927,13 @@
         <v>12</v>
       </c>
       <c r="V33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>39</v>
@@ -5043,13 +4942,13 @@
         <v>27</v>
       </c>
       <c r="AB33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>16</v>
@@ -5058,28 +4957,28 @@
         <v>78</v>
       </c>
       <c r="AH33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AM33" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AN33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="AR33" s="2" t="s">
         <v>22</v>
@@ -5088,41 +4987,41 @@
         <v>8</v>
       </c>
       <c r="AT33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
@@ -5131,115 +5030,115 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O35" s="2">
         <v>1</v>
       </c>
       <c r="P35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U35" s="2">
         <v>1</v>
       </c>
       <c r="V35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA35" s="2">
         <v>1</v>
       </c>
       <c r="AB35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AG35" s="2">
         <v>1</v>
       </c>
       <c r="AH35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AM35" s="2">
         <v>1</v>
       </c>
       <c r="AN35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AS35" s="2">
         <v>1</v>
       </c>
       <c r="AT35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
